--- a/Material-coord/softBV-coord_compare.xlsx
+++ b/Material-coord/softBV-coord_compare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\softBV_mix\GitHub\projects\Coord\Material-coord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Projects\Coord\Material-coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083B8B8-C737-4918-9693-69A35CB48D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2952F29-9E3A-4C1E-9FEC-DF1ACB50C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,16 +733,17 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="79.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -785,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -808,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -828,7 +829,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -897,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -917,7 +918,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -937,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -957,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -997,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>

--- a/Material-coord/softBV-coord_compare.xlsx
+++ b/Material-coord/softBV-coord_compare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Projects\Coord\Material-coord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\softBV_mix\GitHub\projects\Coord\Material-coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2952F29-9E3A-4C1E-9FEC-DF1ACB50C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B317BA-E8B8-4F26-B844-7121F2512797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -392,6 +398,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,18 +739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -809,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -829,7 +836,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -898,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -918,7 +925,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -938,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -954,11 +961,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -978,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1058,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1078,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1094,11 +1101,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1118,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1174,11 +1181,11 @@
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1238,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1294,11 +1301,11 @@
       <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1318,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
